--- a/public/datafiles/ward_coordinates.xlsx
+++ b/public/datafiles/ward_coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavani\Desktop\shudh.ANVI\public\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akula\OneDrive\Desktop\SHUDHHHHH\public\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280440B-8582-474E-A238-7B8690B5570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2EA768-0814-4341-BAAB-953DC0302B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +60,9 @@
   <si>
     <t>Hasmathpet</t>
   </si>
+  <si>
+    <t>SR Nagar</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,12 +91,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,18 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -495,7 +519,7 @@
         <v>17.47231</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -533,7 +557,7 @@
         <v>17.472249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -571,7 +595,7 @@
         <v>17.472280000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -609,7 +633,7 @@
         <v>17.472329999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -647,7 +671,7 @@
         <v>17.47203</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -685,7 +709,7 @@
         <v>17.471990000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -723,7 +747,7 @@
         <v>17.472059999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -761,7 +785,7 @@
         <v>17.472010000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -799,7 +823,7 @@
         <v>17.471769999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -837,7 +861,7 @@
         <v>17.471769999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -875,7 +899,7 @@
         <v>17.47156</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -913,7 +937,7 @@
         <v>17.470870000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -951,7 +975,7 @@
         <v>17.469639999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -989,7 +1013,7 @@
         <v>17.470079999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1027,7 +1051,7 @@
         <v>17.470870000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1065,7 +1089,7 @@
         <v>17.471240000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1103,7 +1127,7 @@
         <v>17.471689999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1141,7 +1165,7 @@
         <v>17.472090000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1179,7 +1203,7 @@
         <v>17.473749999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1217,7 +1241,7 @@
         <v>17.47672</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1255,7 +1279,7 @@
         <v>17.478300000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1293,7 +1317,7 @@
         <v>17.47814</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1331,7 +1355,7 @@
         <v>17.47869</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>17.478020000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1407,7 +1431,7 @@
         <v>17.47692</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1445,7 +1469,7 @@
         <v>17.476520000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1483,7 +1507,7 @@
         <v>17.476220000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1521,7 +1545,7 @@
         <v>17.476240000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1559,7 +1583,7 @@
         <v>17.47636</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1597,7 +1621,7 @@
         <v>17.47709</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1635,7 +1659,7 @@
         <v>17.477319999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1673,7 +1697,7 @@
         <v>17.477080000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1711,7 +1735,7 @@
         <v>17.476870000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1749,7 +1773,7 @@
         <v>17.47654</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1787,7 +1811,7 @@
         <v>17.476199999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1825,7 +1849,7 @@
         <v>17.476099999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1863,7 +1887,7 @@
         <v>17.476209999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1901,7 +1925,7 @@
         <v>17.47625</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1939,7 +1963,7 @@
         <v>17.476690000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1977,7 +2001,7 @@
         <v>17.47663</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2015,7 +2039,7 @@
         <v>17.477</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2053,7 +2077,7 @@
         <v>17.47692</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2091,7 +2115,7 @@
         <v>17.476859999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2129,7 +2153,7 @@
         <v>17.47711</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2167,7 +2191,7 @@
         <v>17.477620000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2205,7 +2229,7 @@
         <v>17.478629999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2243,7 +2267,7 @@
         <v>17.479140000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2281,7 +2305,7 @@
         <v>17.479690000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2319,7 +2343,7 @@
         <v>17.479700000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2357,7 +2381,7 @@
         <v>17.47842</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2395,7 +2419,7 @@
         <v>17.47824</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2433,7 +2457,7 @@
         <v>17.477350000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2471,7 +2495,7 @@
         <v>17.4773</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2509,7 +2533,7 @@
         <v>17.477229999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2547,7 +2571,7 @@
         <v>17.477139999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2585,7 +2609,7 @@
         <v>17.476870000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2623,7 +2647,7 @@
         <v>17.47608</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>17.475570000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2699,7 +2723,7 @@
         <v>17.475059999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2737,7 +2761,7 @@
         <v>17.474699999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2775,7 +2799,7 @@
         <v>17.474219999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2813,7 +2837,7 @@
         <v>17.474039999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2851,7 +2875,7 @@
         <v>17.47392</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2889,7 +2913,7 @@
         <v>17.47362</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2927,7 +2951,7 @@
         <v>17.47269</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2965,7 +2989,7 @@
         <v>17.472930000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3003,7 +3027,7 @@
         <v>17.47259</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3041,7 +3065,7 @@
         <v>17.47259</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3079,7 +3103,7 @@
         <v>17.472580000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3117,7 +3141,7 @@
         <v>17.4727</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3155,7 +3179,7 @@
         <v>17.47231</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3191,6 +3215,1179 @@
       </c>
       <c r="L73">
         <v>17.47231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D74" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>78.447999999999993</v>
+      </c>
+      <c r="L74" s="2">
+        <v>17.443000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D75" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>78.447500000000005</v>
+      </c>
+      <c r="L75" s="2">
+        <v>17.442799999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+      <c r="K76" s="2">
+        <v>78.447100000000006</v>
+      </c>
+      <c r="L76" s="2">
+        <v>17.442499999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D77" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3</v>
+      </c>
+      <c r="K77" s="2">
+        <v>78.446799999999996</v>
+      </c>
+      <c r="L77" s="2">
+        <v>17.4422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E78" s="2">
+        <v>4</v>
+      </c>
+      <c r="K78" s="2">
+        <v>78.4465</v>
+      </c>
+      <c r="L78" s="2">
+        <v>17.4419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5</v>
+      </c>
+      <c r="K79" s="2">
+        <v>78.445999999999998</v>
+      </c>
+      <c r="L79" s="2">
+        <v>17.441500000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D80" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E80" s="2">
+        <v>6</v>
+      </c>
+      <c r="K80" s="2">
+        <v>78.445499999999996</v>
+      </c>
+      <c r="L80" s="2">
+        <v>17.441199999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D81" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E81" s="2">
+        <v>7</v>
+      </c>
+      <c r="K81" s="2">
+        <v>78.444999999999993</v>
+      </c>
+      <c r="L81" s="2">
+        <v>17.440899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D82" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
+      <c r="K82" s="2">
+        <v>78.444599999999994</v>
+      </c>
+      <c r="L82" s="2">
+        <v>17.4407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D83" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E83" s="2">
+        <v>9</v>
+      </c>
+      <c r="K83" s="2">
+        <v>78.444199999999995</v>
+      </c>
+      <c r="L83" s="2">
+        <v>17.4406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D84" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E84" s="2">
+        <v>10</v>
+      </c>
+      <c r="K84" s="2">
+        <v>78.443899999999999</v>
+      </c>
+      <c r="L84" s="2">
+        <v>17.4405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D85" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E85" s="2">
+        <v>11</v>
+      </c>
+      <c r="K85" s="2">
+        <v>78.4435</v>
+      </c>
+      <c r="L85" s="2">
+        <v>17.4404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E86" s="2">
+        <v>12</v>
+      </c>
+      <c r="K86" s="2">
+        <v>78.443100000000001</v>
+      </c>
+      <c r="L86" s="2">
+        <v>17.440799999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D87" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E87" s="2">
+        <v>13</v>
+      </c>
+      <c r="K87" s="2">
+        <v>78.442700000000002</v>
+      </c>
+      <c r="L87" s="2">
+        <v>17.441199999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D88" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E88" s="2">
+        <v>14</v>
+      </c>
+      <c r="K88" s="2">
+        <v>78.442400000000006</v>
+      </c>
+      <c r="L88" s="2">
+        <v>17.441600000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E89" s="2">
+        <v>15</v>
+      </c>
+      <c r="K89" s="2">
+        <v>78.441999999999993</v>
+      </c>
+      <c r="L89" s="2">
+        <v>17.4421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E90" s="2">
+        <v>16</v>
+      </c>
+      <c r="K90" s="2">
+        <v>78.441800000000001</v>
+      </c>
+      <c r="L90" s="2">
+        <v>17.442699999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E91" s="2">
+        <v>17</v>
+      </c>
+      <c r="K91" s="2">
+        <v>78.441599999999994</v>
+      </c>
+      <c r="L91" s="2">
+        <v>17.443300000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E92" s="2">
+        <v>18</v>
+      </c>
+      <c r="K92" s="2">
+        <v>78.441500000000005</v>
+      </c>
+      <c r="L92" s="2">
+        <v>17.443899999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E93" s="2">
+        <v>19</v>
+      </c>
+      <c r="K93" s="2">
+        <v>78.441800000000001</v>
+      </c>
+      <c r="L93" s="2">
+        <v>17.444500000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D94" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E94" s="2">
+        <v>20</v>
+      </c>
+      <c r="K94" s="2">
+        <v>78.4422</v>
+      </c>
+      <c r="L94" s="2">
+        <v>17.444900000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D95" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E95" s="2">
+        <v>21</v>
+      </c>
+      <c r="K95" s="2">
+        <v>78.442800000000005</v>
+      </c>
+      <c r="L95" s="2">
+        <v>17.445399999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E96" s="2">
+        <v>22</v>
+      </c>
+      <c r="K96" s="2">
+        <v>78.443299999999994</v>
+      </c>
+      <c r="L96" s="2">
+        <v>17.445799999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D97" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E97" s="2">
+        <v>23</v>
+      </c>
+      <c r="K97" s="2">
+        <v>78.443899999999999</v>
+      </c>
+      <c r="L97" s="2">
+        <v>17.446100000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D98" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E98" s="2">
+        <v>24</v>
+      </c>
+      <c r="K98" s="2">
+        <v>78.444500000000005</v>
+      </c>
+      <c r="L98" s="2">
+        <v>17.4465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E99" s="2">
+        <v>25</v>
+      </c>
+      <c r="K99" s="2">
+        <v>78.444999999999993</v>
+      </c>
+      <c r="L99" s="2">
+        <v>17.446999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D100" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E100" s="2">
+        <v>26</v>
+      </c>
+      <c r="K100" s="2">
+        <v>78.445499999999996</v>
+      </c>
+      <c r="L100" s="2">
+        <v>17.447299999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D101" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E101" s="2">
+        <v>27</v>
+      </c>
+      <c r="K101" s="2">
+        <v>78.446100000000001</v>
+      </c>
+      <c r="L101" s="2">
+        <v>17.447500000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D102" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E102" s="2">
+        <v>28</v>
+      </c>
+      <c r="K102" s="2">
+        <v>78.446700000000007</v>
+      </c>
+      <c r="L102" s="2">
+        <v>17.447800000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D103" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E103" s="2">
+        <v>29</v>
+      </c>
+      <c r="K103" s="2">
+        <v>78.447299999999998</v>
+      </c>
+      <c r="L103" s="2">
+        <v>17.448</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D104" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E104" s="2">
+        <v>30</v>
+      </c>
+      <c r="K104" s="2">
+        <v>78.447900000000004</v>
+      </c>
+      <c r="L104" s="2">
+        <v>17.4481</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E105" s="2">
+        <v>31</v>
+      </c>
+      <c r="K105" s="2">
+        <v>78.448499999999996</v>
+      </c>
+      <c r="L105" s="2">
+        <v>17.4482</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D106" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E106" s="2">
+        <v>32</v>
+      </c>
+      <c r="K106" s="2">
+        <v>78.449100000000001</v>
+      </c>
+      <c r="L106" s="2">
+        <v>17.4481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E107" s="2">
+        <v>33</v>
+      </c>
+      <c r="K107" s="2">
+        <v>78.449600000000004</v>
+      </c>
+      <c r="L107" s="2">
+        <v>17.447900000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D108" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E108" s="2">
+        <v>34</v>
+      </c>
+      <c r="K108" s="2">
+        <v>78.450100000000006</v>
+      </c>
+      <c r="L108" s="2">
+        <v>17.447600000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D109" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E109" s="2">
+        <v>35</v>
+      </c>
+      <c r="K109" s="2">
+        <v>78.450500000000005</v>
+      </c>
+      <c r="L109" s="2">
+        <v>17.447199999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D110" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E110" s="2">
+        <v>36</v>
+      </c>
+      <c r="K110" s="2">
+        <v>78.450800000000001</v>
+      </c>
+      <c r="L110" s="2">
+        <v>17.4467</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D111" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E111" s="2">
+        <v>37</v>
+      </c>
+      <c r="K111" s="2">
+        <v>78.450999999999993</v>
+      </c>
+      <c r="L111" s="2">
+        <v>17.446100000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D112" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E112" s="2">
+        <v>38</v>
+      </c>
+      <c r="K112" s="2">
+        <v>78.4512</v>
+      </c>
+      <c r="L112" s="2">
+        <v>17.445399999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D113" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E113" s="2">
+        <v>39</v>
+      </c>
+      <c r="K113" s="2">
+        <v>78.451300000000003</v>
+      </c>
+      <c r="L113" s="2">
+        <v>17.444800000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D114" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E114" s="2">
+        <v>40</v>
+      </c>
+      <c r="K114" s="2">
+        <v>78.451499999999996</v>
+      </c>
+      <c r="L114" s="2">
+        <v>17.444099999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D115" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E115" s="2">
+        <v>41</v>
+      </c>
+      <c r="K115" s="2">
+        <v>78.451400000000007</v>
+      </c>
+      <c r="L115" s="2">
+        <v>17.4435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D116" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E116" s="2">
+        <v>42</v>
+      </c>
+      <c r="K116" s="2">
+        <v>78.4512</v>
+      </c>
+      <c r="L116" s="2">
+        <v>17.443000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D117" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43</v>
+      </c>
+      <c r="K117" s="2">
+        <v>78.450900000000004</v>
+      </c>
+      <c r="L117" s="2">
+        <v>17.442499999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D118" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44</v>
+      </c>
+      <c r="K118" s="2">
+        <v>78.450500000000005</v>
+      </c>
+      <c r="L118" s="2">
+        <v>17.4421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D119" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45</v>
+      </c>
+      <c r="K119" s="2">
+        <v>78.45</v>
+      </c>
+      <c r="L119" s="2">
+        <v>17.441800000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D120" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E120" s="2">
+        <v>46</v>
+      </c>
+      <c r="K120" s="2">
+        <v>78.449399999999997</v>
+      </c>
+      <c r="L120" s="2">
+        <v>17.441600000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D121" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E121" s="2">
+        <v>47</v>
+      </c>
+      <c r="K121" s="2">
+        <v>78.448899999999995</v>
+      </c>
+      <c r="L121" s="2">
+        <v>17.441500000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D122" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E122" s="2">
+        <v>48</v>
+      </c>
+      <c r="K122" s="2">
+        <v>78.448400000000007</v>
+      </c>
+      <c r="L122" s="2">
+        <v>17.441700000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D123" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E123" s="2">
+        <v>49</v>
+      </c>
+      <c r="K123" s="2">
+        <v>78.447999999999993</v>
+      </c>
+      <c r="L123" s="2">
+        <v>17.4422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2514300</v>
+      </c>
+      <c r="D124" s="2">
+        <v>7450.6</v>
+      </c>
+      <c r="E124" s="2">
+        <v>50</v>
+      </c>
+      <c r="K124" s="2">
+        <v>78.447999999999993</v>
+      </c>
+      <c r="L124" s="2">
+        <v>17.443000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/public/datafiles/ward_coordinates.xlsx
+++ b/public/datafiles/ward_coordinates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akula\OneDrive\Desktop\SHUDHHHHH\public\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jered\Desktop\backend\SHUDH\shudh.ANVI\public\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2EA768-0814-4341-BAAB-953DC0302B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497C9C92-73B2-4DA6-8062-5DF6F52ED321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>Ward</t>
   </si>
   <si>
     <t>area</t>
@@ -49,19 +46,58 @@
     <t>distance</t>
   </si>
   <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Hasmathpet</t>
   </si>
   <si>
     <t>SR Nagar</t>
+  </si>
+  <si>
+    <t>Area_name</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>ward_id</t>
+  </si>
+  <si>
+    <t>no_of_manholes</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>waste_colleccted</t>
+  </si>
+  <si>
+    <t>no_of_robo's</t>
+  </si>
+  <si>
+    <t>Total_sewer_length</t>
+  </si>
+  <si>
+    <t>landuse_classes</t>
+  </si>
+  <si>
+    <t>Residential, Slum, Water_body</t>
+  </si>
+  <si>
+    <t>s.no</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>kukatpally</t>
+  </si>
+  <si>
+    <t>Sr nagar</t>
   </si>
 </sst>
 </file>
@@ -432,61 +468,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:W124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="72" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="15"/>
+    <col min="1" max="20" width="15"/>
+    <col min="21" max="21" width="27.5546875" customWidth="1"/>
+    <col min="22" max="1023" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>726916.255</v>
@@ -518,13 +589,46 @@
       <c r="L2">
         <v>17.47231</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>8000</v>
+      </c>
+      <c r="O2">
+        <v>1258963</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>145</v>
+      </c>
+      <c r="S2">
+        <v>726916</v>
+      </c>
+      <c r="T2">
+        <v>5198</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>726916.255</v>
@@ -557,12 +661,12 @@
         <v>17.472249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>726916.255</v>
@@ -595,12 +699,12 @@
         <v>17.472280000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>726916.255</v>
@@ -633,12 +737,12 @@
         <v>17.472329999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>726916.255</v>
@@ -671,12 +775,12 @@
         <v>17.47203</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>726916.255</v>
@@ -709,12 +813,12 @@
         <v>17.471990000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>726916.255</v>
@@ -747,12 +851,12 @@
         <v>17.472059999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>726916.255</v>
@@ -785,12 +889,12 @@
         <v>17.472010000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>726916.255</v>
@@ -823,12 +927,12 @@
         <v>17.471769999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>726916.255</v>
@@ -861,12 +965,12 @@
         <v>17.471769999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>726916.255</v>
@@ -899,12 +1003,12 @@
         <v>17.47156</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>726916.255</v>
@@ -937,12 +1041,12 @@
         <v>17.470870000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>726916.255</v>
@@ -975,12 +1079,12 @@
         <v>17.469639999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>726916.255</v>
@@ -1013,12 +1117,12 @@
         <v>17.470079999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>726916.255</v>
@@ -1056,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>726916.255</v>
@@ -1094,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>726916.255</v>
@@ -1132,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>726916.255</v>
@@ -1170,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>726916.255</v>
@@ -1208,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>726916.255</v>
@@ -1246,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>726916.255</v>
@@ -1284,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>726916.255</v>
@@ -1322,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>726916.255</v>
@@ -1360,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>726916.255</v>
@@ -1398,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>726916.255</v>
@@ -1436,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>726916.255</v>
@@ -1474,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>726916.255</v>
@@ -1512,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>726916.255</v>
@@ -1550,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>726916.255</v>
@@ -1588,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>726916.255</v>
@@ -1626,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>726916.255</v>
@@ -1664,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>726916.255</v>
@@ -1702,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>726916.255</v>
@@ -1740,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>726916.255</v>
@@ -1778,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>726916.255</v>
@@ -1816,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>726916.255</v>
@@ -1854,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>726916.255</v>
@@ -1892,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>726916.255</v>
@@ -1930,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>726916.255</v>
@@ -1968,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>726916.255</v>
@@ -2006,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>726916.255</v>
@@ -2044,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>726916.255</v>
@@ -2082,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>726916.255</v>
@@ -2120,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>726916.255</v>
@@ -2158,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>726916.255</v>
@@ -2196,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>726916.255</v>
@@ -2234,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>726916.255</v>
@@ -2272,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>726916.255</v>
@@ -2310,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>726916.255</v>
@@ -2348,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>726916.255</v>
@@ -2386,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>726916.255</v>
@@ -2424,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>726916.255</v>
@@ -2462,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>726916.255</v>
@@ -2500,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <v>726916.255</v>
@@ -2538,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>726916.255</v>
@@ -2576,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>726916.255</v>
@@ -2614,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>726916.255</v>
@@ -2652,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>726916.255</v>
@@ -2690,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C60">
         <v>726916.255</v>
@@ -2728,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>726916.255</v>
@@ -2766,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62">
         <v>726916.255</v>
@@ -2804,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C63">
         <v>726916.255</v>
@@ -2842,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>726916.255</v>
@@ -2875,12 +2979,12 @@
         <v>17.47392</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <v>726916.255</v>
@@ -2913,12 +3017,12 @@
         <v>17.47362</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C66">
         <v>726916.255</v>
@@ -2951,12 +3055,12 @@
         <v>17.47269</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>726916.255</v>
@@ -2989,12 +3093,12 @@
         <v>17.472930000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C68">
         <v>726916.255</v>
@@ -3027,12 +3131,12 @@
         <v>17.47259</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>726916.255</v>
@@ -3065,12 +3169,12 @@
         <v>17.47259</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>726916.255</v>
@@ -3103,12 +3207,12 @@
         <v>17.472580000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C71">
         <v>726916.255</v>
@@ -3141,12 +3245,12 @@
         <v>17.4727</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>726916.255</v>
@@ -3179,12 +3283,12 @@
         <v>17.47231</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73">
         <v>726916.255</v>
@@ -3217,12 +3321,12 @@
         <v>17.47231</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2">
         <v>2514300</v>
@@ -3239,13 +3343,46 @@
       <c r="L74" s="2">
         <v>17.443000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>7000</v>
+      </c>
+      <c r="O74">
+        <v>234554</v>
+      </c>
+      <c r="P74">
+        <v>150</v>
+      </c>
+      <c r="Q74">
+        <v>20</v>
+      </c>
+      <c r="R74">
+        <v>123</v>
+      </c>
+      <c r="S74">
+        <v>679234</v>
+      </c>
+      <c r="T74">
+        <v>4134</v>
+      </c>
+      <c r="U74" t="s">
+        <v>19</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2">
         <v>2514300</v>
@@ -3263,12 +3400,12 @@
         <v>17.442799999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2">
         <v>2514300</v>
@@ -3286,12 +3423,12 @@
         <v>17.442499999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2">
         <v>2514300</v>
@@ -3309,12 +3446,12 @@
         <v>17.4422</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2">
         <v>2514300</v>
@@ -3332,12 +3469,12 @@
         <v>17.4419</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2">
         <v>2514300</v>
@@ -3355,12 +3492,12 @@
         <v>17.441500000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C80" s="2">
         <v>2514300</v>
@@ -3378,12 +3515,12 @@
         <v>17.441199999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2">
         <v>2514300</v>
@@ -3401,12 +3538,12 @@
         <v>17.440899999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2">
         <v>2514300</v>
@@ -3424,12 +3561,12 @@
         <v>17.4407</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C83" s="2">
         <v>2514300</v>
@@ -3447,12 +3584,12 @@
         <v>17.4406</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84" s="2">
         <v>2514300</v>
@@ -3470,12 +3607,12 @@
         <v>17.4405</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C85" s="2">
         <v>2514300</v>
@@ -3493,12 +3630,12 @@
         <v>17.4404</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C86" s="2">
         <v>2514300</v>
@@ -3516,12 +3653,12 @@
         <v>17.440799999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C87" s="2">
         <v>2514300</v>
@@ -3539,12 +3676,12 @@
         <v>17.441199999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2">
         <v>2514300</v>
@@ -3562,12 +3699,12 @@
         <v>17.441600000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89" s="2">
         <v>2514300</v>
@@ -3585,12 +3722,12 @@
         <v>17.4421</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C90" s="2">
         <v>2514300</v>
@@ -3608,12 +3745,12 @@
         <v>17.442699999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C91" s="2">
         <v>2514300</v>
@@ -3631,12 +3768,12 @@
         <v>17.443300000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2">
         <v>2514300</v>
@@ -3654,12 +3791,12 @@
         <v>17.443899999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C93" s="2">
         <v>2514300</v>
@@ -3677,12 +3814,12 @@
         <v>17.444500000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C94" s="2">
         <v>2514300</v>
@@ -3700,12 +3837,12 @@
         <v>17.444900000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2">
         <v>2514300</v>
@@ -3723,12 +3860,12 @@
         <v>17.445399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2">
         <v>2514300</v>
@@ -3746,12 +3883,12 @@
         <v>17.445799999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2">
         <v>2514300</v>
@@ -3769,12 +3906,12 @@
         <v>17.446100000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2">
         <v>2514300</v>
@@ -3792,12 +3929,12 @@
         <v>17.4465</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2">
         <v>2514300</v>
@@ -3815,12 +3952,12 @@
         <v>17.446999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C100" s="2">
         <v>2514300</v>
@@ -3838,12 +3975,12 @@
         <v>17.447299999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101" s="2">
         <v>2514300</v>
@@ -3861,12 +3998,12 @@
         <v>17.447500000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2">
         <v>2514300</v>
@@ -3884,12 +4021,12 @@
         <v>17.447800000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2">
         <v>2514300</v>
@@ -3907,12 +4044,12 @@
         <v>17.448</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C104" s="2">
         <v>2514300</v>
@@ -3930,12 +4067,12 @@
         <v>17.4481</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C105" s="2">
         <v>2514300</v>
@@ -3953,12 +4090,12 @@
         <v>17.4482</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C106" s="2">
         <v>2514300</v>
@@ -3976,12 +4113,12 @@
         <v>17.4481</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107" s="2">
         <v>2514300</v>
@@ -3999,12 +4136,12 @@
         <v>17.447900000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C108" s="2">
         <v>2514300</v>
@@ -4022,12 +4159,12 @@
         <v>17.447600000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C109" s="2">
         <v>2514300</v>
@@ -4045,12 +4182,12 @@
         <v>17.447199999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2">
         <v>2514300</v>
@@ -4068,12 +4205,12 @@
         <v>17.4467</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C111" s="2">
         <v>2514300</v>
@@ -4091,12 +4228,12 @@
         <v>17.446100000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C112" s="2">
         <v>2514300</v>
@@ -4114,12 +4251,12 @@
         <v>17.445399999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2">
         <v>2514300</v>
@@ -4137,12 +4274,12 @@
         <v>17.444800000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C114" s="2">
         <v>2514300</v>
@@ -4160,12 +4297,12 @@
         <v>17.444099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C115" s="2">
         <v>2514300</v>
@@ -4183,12 +4320,12 @@
         <v>17.4435</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C116" s="2">
         <v>2514300</v>
@@ -4206,12 +4343,12 @@
         <v>17.443000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C117" s="2">
         <v>2514300</v>
@@ -4229,12 +4366,12 @@
         <v>17.442499999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C118" s="2">
         <v>2514300</v>
@@ -4252,12 +4389,12 @@
         <v>17.4421</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C119" s="2">
         <v>2514300</v>
@@ -4275,12 +4412,12 @@
         <v>17.441800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C120" s="2">
         <v>2514300</v>
@@ -4298,12 +4435,12 @@
         <v>17.441600000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C121" s="2">
         <v>2514300</v>
@@ -4321,12 +4458,12 @@
         <v>17.441500000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C122" s="2">
         <v>2514300</v>
@@ -4344,12 +4481,12 @@
         <v>17.441700000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C123" s="2">
         <v>2514300</v>
@@ -4367,12 +4504,12 @@
         <v>17.4422</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C124" s="2">
         <v>2514300</v>
